--- a/01_Tableau & Excel/jun18.xlsx
+++ b/01_Tableau & Excel/jun18.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_Ayush_One_to_one\01_Tableau &amp; Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90155AFC-368D-480D-9BCF-9B3A9BCA1DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E7CD62-2138-4998-8C9C-2CC7A5FCF943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Consolidated Marks Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Ayush Sheth" sheetId="3" r:id="rId3"/>
+    <sheet name="Alakh Pandya" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -217,6 +218,18 @@
   </si>
   <si>
     <t>Nearest Ten</t>
+  </si>
+  <si>
+    <t>Test - 2 Marks</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Pandya</t>
   </si>
 </sst>
 </file>
@@ -224,8 +237,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -262,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -270,13 +283,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,11 +587,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -594,7 +606,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
@@ -614,19 +626,19 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>45461</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>45599</v>
       </c>
     </row>
@@ -634,19 +646,19 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>45462</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>45461</v>
       </c>
     </row>
@@ -654,13 +666,13 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>45463</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -668,13 +680,13 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>45464</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -682,13 +694,13 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>45465</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -696,13 +708,13 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>45466</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -710,13 +722,13 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>45467</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -724,13 +736,13 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>45468</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -738,13 +750,13 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>45469</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -752,13 +764,13 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>45470</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -766,13 +778,13 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>45471</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -780,13 +792,13 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>45472</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -794,13 +806,13 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>45473</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -808,13 +820,13 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>45474</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -822,13 +834,13 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>45475</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -836,13 +848,13 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>45476</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -850,13 +862,13 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>45477</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -880,10 +892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A52F23E-10AF-442B-AFEB-F950E6A4D188}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,12 +904,12 @@
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -908,7 +920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -916,10 +928,12 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <f>'Ayush Sheth'!E14</f>
+        <v>1229</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -930,7 +944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -941,7 +955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -952,7 +966,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -963,7 +977,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -974,7 +988,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -985,7 +999,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -996,7 +1010,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1007,7 +1021,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1026,19 +1040,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46B07DA-58B7-4F23-83CE-3D2B3E2AE412}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1062,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1054,7 +1070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1062,7 +1078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1072,8 +1088,14 @@
       <c r="C5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1083,8 +1105,15 @@
       <c r="C6">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <f>C6+D6</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1094,8 +1123,15 @@
       <c r="C7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>97</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E12" si="0">C7+D7</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1105,8 +1141,15 @@
       <c r="C8">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1116,8 +1159,15 @@
       <c r="C9">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1127,8 +1177,15 @@
       <c r="C10">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1138,8 +1195,15 @@
       <c r="C11">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1149,8 +1213,15 @@
       <c r="C12">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>86</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>54</v>
       </c>
@@ -1158,8 +1229,16 @@
         <f>SUM(C6:C12)</f>
         <v>608</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f>SUM(D6:D12)</f>
+        <v>621</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E6:E12)</f>
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -1168,7 +1247,7 @@
         <v>86.857142857142861</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>56</v>
       </c>
@@ -1220,6 +1299,40 @@
       <c r="C21">
         <f>ROUND(C15, -2)</f>
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B8FAD7-66F0-4DDE-820E-F2B583B36D6C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
